--- a/EngrM20/HW/HW8/HW8_GraphGen.xlsx
+++ b/EngrM20/HW/HW8/HW8_GraphGen.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JFowler\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jared\Desktop\College\EngrM20\HW\HW8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="9330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="9330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2025,34 +2025,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.3825509525925577</c:v>
+                  <c:v>-1.1704526007992369</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26927252526325263</c:v>
+                  <c:v>0.50707788518534191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45616755271331116</c:v>
+                  <c:v>0.21090321426752973</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.18790536251826789</c:v>
+                  <c:v>-0.27791374143041225</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.13121739082041364</c:v>
+                  <c:v>4.2814203669425753E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.4683120331876924E-2</c:v>
+                  <c:v>8.3690324262233079E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9831255700565381E-2</c:v>
+                  <c:v>-5.2007828504968864E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.0642081104664926E-2</c:v>
+                  <c:v>-8.2564986962362624E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.0586584560182341E-3</c:v>
+                  <c:v>2.2709605767671372E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5547115731732413E-2</c:v>
+                  <c:v>-6.8011368195971577E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2401,304 +2401,304 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.37859217533511058</c:v>
+                  <c:v>-0.37809819208706591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.709479200084845</c:v>
+                  <c:v>-0.70587799532559514</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.98699487812630149</c:v>
+                  <c:v>-0.97569831315920719</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.2076584182001975</c:v>
+                  <c:v>-1.1828430383858175</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.3700738274220556</c:v>
+                  <c:v>-1.3254215401809413</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.4747745748668679</c:v>
+                  <c:v>-1.4041714780043166</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.5240235246891869</c:v>
+                  <c:v>-1.4221807145734038</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.5215785663410104</c:v>
+                  <c:v>-1.3845465717948684</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.4724344351815633</c:v>
+                  <c:v>-1.2979913133867609</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.3825509525925577</c:v>
+                  <c:v>-1.1704526007992369</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.2585773601634749</c:v>
+                  <c:v>-1.0106668340881835</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.1075816223306689</c:v>
+                  <c:v>-0.82776185468295504</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.93679257409747252</c:v>
+                  <c:v>-0.63087356399594041</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.75336164470680678</c:v>
+                  <c:v>-0.42879871993448737</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.56414964380694144</c:v>
+                  <c:v>-0.229693634608823</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.37554280150595604</c:v>
+                  <c:v>-4.0825830647506445E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.19330095253455437</c:v>
+                  <c:v>0.1316169662774328</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2.2439488237642833E-2</c:v>
+                  <c:v>0.28265871190572722</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.13285449594317084</c:v>
+                  <c:v>0.40860843001680813</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.26927252526325263</c:v>
+                  <c:v>0.50707788518534191</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.38440318110058708</c:v>
+                  <c:v>0.57694817338005699</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.4767211130604877</c:v>
+                  <c:v>0.61829135840848459</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.54554976666937616</c:v>
+                  <c:v>0.6322544037308504</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.59100147758211741</c:v>
+                  <c:v>0.62091338905581883</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.61389893390751094</c:v>
+                  <c:v>0.58710636764929613</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.61568220213886182</c:v>
+                  <c:v>0.53425323506741529</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.59830555820217257</c:v>
+                  <c:v>0.46617067597805734</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.56412827595425696</c:v>
+                  <c:v>0.38688967473169622</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.51580331669415447</c:v>
+                  <c:v>0.30048226576975806</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.45616755271331116</c:v>
+                  <c:v>0.21090321426752973</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.38813676486596688</c:v>
+                  <c:v>0.12185120973656728</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.31460819856565686</c:v>
+                  <c:v>3.6652979269857736E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.23837296450919424</c:v>
+                  <c:v>-4.1827466196217425E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.16204004920677648</c:v>
+                  <c:v>-0.11125340291182742</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.7973174332581325E-2</c:v>
+                  <c:v>-0.16985382569271154</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.8241229691175625E-2</c:v>
+                  <c:v>-0.21643676983242399</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-4.5417483045321561E-2</c:v>
+                  <c:v>-0.25037940785653773</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.10161740722452517</c:v>
+                  <c:v>-0.27159750681784095</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.14933489946539102</c:v>
+                  <c:v>-0.28049736842519973</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.18790536251826789</c:v>
+                  <c:v>-0.27791374143041225</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.2170095764861795</c:v>
+                  <c:v>-0.26503739557169376</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.23665067792075872</c:v>
+                  <c:v>-0.24333608732675288</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.24712338682554758</c:v>
+                  <c:v>-0.2144725433329624</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.24897716844314505</c:v>
+                  <c:v>-0.18022285537746768</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.24297504325188668</c:v>
+                  <c:v>-0.14239834228084461</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.23004972977122898</c:v>
+                  <c:v>-0.10277351177984824</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.21125872673163726</c:v>
+                  <c:v>-6.3022273627799399E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.18773982099530015</c:v>
+                  <c:v>-2.4664037526792679E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.16066835303379834</c:v>
+                  <c:v>1.0979200789086053E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.13121739082041364</c:v>
+                  <c:v>4.2814203669425753E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.100521763768598</c:v>
+                  <c:v>6.9996178293969591E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-6.9646698728504208E-2</c:v>
+                  <c:v>9.1937168866457378E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-3.9561587495056463E-2</c:v>
+                  <c:v>0.10830391083909674</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-1.1119206619662746E-2</c:v>
+                  <c:v>0.11900623135592441</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.4959488381563078E-2</c:v>
+                  <c:v>0.12417733541983328</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.8095055886522879E-2</c:v>
+                  <c:v>0.124147497513482</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.7853973749149003E-2</c:v>
+                  <c:v>0.11941278385038236</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.3948124868734408E-2</c:v>
+                  <c:v>0.11060046421676939</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8.622984681457567E-2</c:v>
+                  <c:v>9.8432740025827498E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>9.4683120331876924E-2</c:v>
+                  <c:v>8.3690324262233079E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>9.9411535946001411E-2</c:v>
+                  <c:v>6.7177268472360871E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.10062371642956777</c:v>
+                  <c:v>4.9688251900602297E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9.8616886870924056E-2</c:v>
+                  <c:v>3.1979338874806855E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>9.3759275390667099E-2</c:v>
+                  <c:v>1.4742983283382582E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8.6471998620133064E-2</c:v>
+                  <c:v>-1.4121761811968201E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7.7211039700745845E-2</c:v>
+                  <c:v>-1.5976419742661809E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6.6449865873515868E-2</c:v>
+                  <c:v>-2.854886191427105E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.4663160939851678E-2</c:v>
+                  <c:v>-3.8842296267046224E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.2312068258607602E-2</c:v>
+                  <c:v>-4.6683268409222906E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.9831255700565381E-2</c:v>
+                  <c:v>-5.2007828504968864E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.7618028149143046E-2</c:v>
+                  <c:v>-5.4853535544230274E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6.0236285136451703E-3</c:v>
+                  <c:v>-5.5348373257321205E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-4.6532126962175171E-3</c:v>
+                  <c:v>-5.3697291882204644E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-1.4170494255218607E-2</c:v>
+                  <c:v>-5.0167112055057028E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-2.2345010049922388E-2</c:v>
+                  <c:v>-4.507051913818369E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-2.9052404829719495E-2</c:v>
+                  <c:v>-3.8749841482072875E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-3.4225409445923914E-2</c:v>
+                  <c:v>-3.1561248316765482E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-3.7850483256037674E-2</c:v>
+                  <c:v>-2.3859926560873046E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-3.9963118833643924E-2</c:v>
+                  <c:v>-1.5986705492404434E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-4.0642081104664926E-2</c:v>
+                  <c:v>-8.2564986962362624E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-4.0002860001768663E-2</c:v>
+                  <c:v>-9.48828636874668E-4</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-3.8190613428017779E-2</c:v>
+                  <c:v>5.6994050199529614E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-3.537286670170893E-2</c:v>
+                  <c:v>1.1498852629972337E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-3.1732216835893355E-2</c:v>
+                  <c:v>1.6310369793166933E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-2.7459266223005641E-2</c:v>
+                  <c:v>2.0045516098997275E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-2.2745981848525856E-2</c:v>
+                  <c:v>2.2665083697292785E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-1.7779644368859284E-2</c:v>
+                  <c:v>2.41758989786615E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-1.2737517556192708E-2</c:v>
+                  <c:v>2.4626182981033872E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-7.7823339749824834E-3</c:v>
+                  <c:v>2.409978361255237E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-3.0586584560182341E-3</c:v>
+                  <c:v>2.2709605767671372E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.3098419997139368E-3</c:v>
+                  <c:v>2.0590564799197852E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5.2222239379400804E-3</c:v>
+                  <c:v>1.7892375911652294E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.6012185390472416E-3</c:v>
+                  <c:v>1.4772468518740586E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.1393361973443651E-2</c:v>
+                  <c:v>1.1389282363003265E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.3568379106607574E-2</c:v>
+                  <c:v>7.8961632816090029E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.5117910616062866E-2</c:v>
+                  <c:v>4.4360330290830986E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.6053685263888947E-2</c:v>
+                  <c:v>1.1369616178923533E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.6405246499917068E-2</c:v>
+                  <c:v>-1.8912758106425704E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.6217345927685041E-2</c:v>
+                  <c:v>-4.5596207108719762E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.5547115731732413E-2</c:v>
+                  <c:v>-6.8011368195971577E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3255,304 +3255,304 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.37859217533511058</c:v>
+                  <c:v>-0.37809819208706591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.709479200084845</c:v>
+                  <c:v>-0.70587799532559514</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.98699487812630149</c:v>
+                  <c:v>-0.97569831315920719</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.2076584182001975</c:v>
+                  <c:v>-1.1828430383858175</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.3700738274220556</c:v>
+                  <c:v>-1.3254215401809413</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.4747745748668679</c:v>
+                  <c:v>-1.4041714780043166</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.5240235246891869</c:v>
+                  <c:v>-1.4221807145734038</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.5215785663410104</c:v>
+                  <c:v>-1.3845465717948684</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.4724344351815633</c:v>
+                  <c:v>-1.2979913133867609</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.3825509525925577</c:v>
+                  <c:v>-1.1704526007992369</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.2585773601634749</c:v>
+                  <c:v>-1.0106668340881835</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.1075816223306689</c:v>
+                  <c:v>-0.82776185468295504</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.93679257409747252</c:v>
+                  <c:v>-0.63087356399594041</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.75336164470680678</c:v>
+                  <c:v>-0.42879871993448737</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.56414964380694144</c:v>
+                  <c:v>-0.229693634608823</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.37554280150595604</c:v>
+                  <c:v>-4.0825830647506445E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.19330095253455437</c:v>
+                  <c:v>0.1316169662774328</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2.2439488237642833E-2</c:v>
+                  <c:v>0.28265871190572722</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.13285449594317084</c:v>
+                  <c:v>0.40860843001680813</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.26927252526325263</c:v>
+                  <c:v>0.50707788518534191</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.38440318110058708</c:v>
+                  <c:v>0.57694817338005699</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.4767211130604877</c:v>
+                  <c:v>0.61829135840848459</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.54554976666937616</c:v>
+                  <c:v>0.6322544037308504</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.59100147758211741</c:v>
+                  <c:v>0.62091338905581883</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.61389893390751094</c:v>
+                  <c:v>0.58710636764929613</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.61568220213886182</c:v>
+                  <c:v>0.53425323506741529</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.59830555820217257</c:v>
+                  <c:v>0.46617067597805734</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.56412827595425696</c:v>
+                  <c:v>0.38688967473169622</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.51580331669415447</c:v>
+                  <c:v>0.30048226576975806</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.45616755271331116</c:v>
+                  <c:v>0.21090321426752973</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.38813676486596688</c:v>
+                  <c:v>0.12185120973656728</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.31460819856565686</c:v>
+                  <c:v>3.6652979269857736E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.23837296450919424</c:v>
+                  <c:v>-4.1827466196217425E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.16204004920677648</c:v>
+                  <c:v>-0.11125340291182742</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.7973174332581325E-2</c:v>
+                  <c:v>-0.16985382569271154</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.8241229691175625E-2</c:v>
+                  <c:v>-0.21643676983242399</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-4.5417483045321561E-2</c:v>
+                  <c:v>-0.25037940785653773</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.10161740722452517</c:v>
+                  <c:v>-0.27159750681784095</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.14933489946539102</c:v>
+                  <c:v>-0.28049736842519973</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.18790536251826789</c:v>
+                  <c:v>-0.27791374143041225</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.2170095764861795</c:v>
+                  <c:v>-0.26503739557169376</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.23665067792075872</c:v>
+                  <c:v>-0.24333608732675288</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.24712338682554758</c:v>
+                  <c:v>-0.2144725433329624</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.24897716844314505</c:v>
+                  <c:v>-0.18022285537746768</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.24297504325188668</c:v>
+                  <c:v>-0.14239834228084461</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.23004972977122898</c:v>
+                  <c:v>-0.10277351177984824</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.21125872673163726</c:v>
+                  <c:v>-6.3022273627799399E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.18773982099530015</c:v>
+                  <c:v>-2.4664037526792679E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.16066835303379834</c:v>
+                  <c:v>1.0979200789086053E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.13121739082041364</c:v>
+                  <c:v>4.2814203669425753E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.100521763768598</c:v>
+                  <c:v>6.9996178293969591E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-6.9646698728504208E-2</c:v>
+                  <c:v>9.1937168866457378E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-3.9561587495056463E-2</c:v>
+                  <c:v>0.10830391083909674</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-1.1119206619662746E-2</c:v>
+                  <c:v>0.11900623135592441</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.4959488381563078E-2</c:v>
+                  <c:v>0.12417733541983328</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.8095055886522879E-2</c:v>
+                  <c:v>0.124147497513482</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.7853973749149003E-2</c:v>
+                  <c:v>0.11941278385038236</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.3948124868734408E-2</c:v>
+                  <c:v>0.11060046421676939</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8.622984681457567E-2</c:v>
+                  <c:v>9.8432740025827498E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>9.4683120331876924E-2</c:v>
+                  <c:v>8.3690324262233079E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>9.9411535946001411E-2</c:v>
+                  <c:v>6.7177268472360871E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.10062371642956777</c:v>
+                  <c:v>4.9688251900602297E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9.8616886870924056E-2</c:v>
+                  <c:v>3.1979338874806855E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>9.3759275390667099E-2</c:v>
+                  <c:v>1.4742983283382582E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8.6471998620133064E-2</c:v>
+                  <c:v>-1.4121761811968201E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7.7211039700745845E-2</c:v>
+                  <c:v>-1.5976419742661809E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6.6449865873515868E-2</c:v>
+                  <c:v>-2.854886191427105E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.4663160939851678E-2</c:v>
+                  <c:v>-3.8842296267046224E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.2312068258607602E-2</c:v>
+                  <c:v>-4.6683268409222906E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.9831255700565381E-2</c:v>
+                  <c:v>-5.2007828504968864E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.7618028149143046E-2</c:v>
+                  <c:v>-5.4853535544230274E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6.0236285136451703E-3</c:v>
+                  <c:v>-5.5348373257321205E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-4.6532126962175171E-3</c:v>
+                  <c:v>-5.3697291882204644E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-1.4170494255218607E-2</c:v>
+                  <c:v>-5.0167112055057028E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-2.2345010049922388E-2</c:v>
+                  <c:v>-4.507051913818369E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-2.9052404829719495E-2</c:v>
+                  <c:v>-3.8749841482072875E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-3.4225409445923914E-2</c:v>
+                  <c:v>-3.1561248316765482E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-3.7850483256037674E-2</c:v>
+                  <c:v>-2.3859926560873046E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-3.9963118833643924E-2</c:v>
+                  <c:v>-1.5986705492404434E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-4.0642081104664926E-2</c:v>
+                  <c:v>-8.2564986962362624E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-4.0002860001768663E-2</c:v>
+                  <c:v>-9.48828636874668E-4</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-3.8190613428017779E-2</c:v>
+                  <c:v>5.6994050199529614E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-3.537286670170893E-2</c:v>
+                  <c:v>1.1498852629972337E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-3.1732216835893355E-2</c:v>
+                  <c:v>1.6310369793166933E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-2.7459266223005641E-2</c:v>
+                  <c:v>2.0045516098997275E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-2.2745981848525856E-2</c:v>
+                  <c:v>2.2665083697292785E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-1.7779644368859284E-2</c:v>
+                  <c:v>2.41758989786615E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-1.2737517556192708E-2</c:v>
+                  <c:v>2.4626182981033872E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-7.7823339749824834E-3</c:v>
+                  <c:v>2.409978361255237E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-3.0586584560182341E-3</c:v>
+                  <c:v>2.2709605767671372E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.3098419997139368E-3</c:v>
+                  <c:v>2.0590564799197852E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5.2222239379400804E-3</c:v>
+                  <c:v>1.7892375911652294E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.6012185390472416E-3</c:v>
+                  <c:v>1.4772468518740586E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.1393361973443651E-2</c:v>
+                  <c:v>1.1389282363003265E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.3568379106607574E-2</c:v>
+                  <c:v>7.8961632816090029E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.5117910616062866E-2</c:v>
+                  <c:v>4.4360330290830986E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.6053685263888947E-2</c:v>
+                  <c:v>1.1369616178923533E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.6405246499917068E-2</c:v>
+                  <c:v>-1.8912758106425704E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.6217345927685041E-2</c:v>
+                  <c:v>-4.5596207108719762E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.5547115731732413E-2</c:v>
+                  <c:v>-6.8011368195971577E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8939,19 +8939,19 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" ref="A66:A129" si="4">((ROW()-1)*1)</f>
+        <f t="shared" ref="A66:A101" si="4">((ROW()-1)*1)</f>
         <v>65</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:B129" si="5">(8*(2.71828^(-0.5*((ROW()-1)*1)))-3*(2.71828^(-2*((ROW()-1)*1))))</f>
+        <f t="shared" ref="B66:B101" si="5">(8*(2.71828^(-0.5*((ROW()-1)*1)))-3*(2.71828^(-2*((ROW()-1)*1))))</f>
         <v>6.1450980859934919E-14</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D129" si="6">((ROW()-1)*0.1)</f>
+        <f t="shared" ref="D66:D101" si="6">((ROW()-1)*0.1)</f>
         <v>6.5</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E129" si="7">(8*(2.71828^(-0.5*((ROW()-1)*0.1)))-3*(2.71828^(-2*((ROW()-1)*0.1))))</f>
+        <f t="shared" ref="E66:E101" si="7">(8*(2.71828^(-0.5*((ROW()-1)*0.1)))-3*(2.71828^(-2*((ROW()-1)*0.1))))</f>
         <v>0.31018755972798329</v>
       </c>
     </row>
@@ -9595,8 +9595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9607,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <f>(-1*(2.71828^(-0.5*((ROW()-1)*1)))*(4/(3^(0.5)))*SIN((3^(0.5))*((ROW()-1)*1)))</f>
+        <f>(-1*(2.71828^(-0.5*((ROW()-1)*1)))*2.066*SIN(1.936*((ROW()-1)*1)))</f>
         <v>0</v>
       </c>
       <c r="D1">
@@ -9615,7 +9615,7 @@
         <v>0</v>
       </c>
       <c r="E1">
-        <f>(-1*(2.71828^(-0.5*((ROW()-1)*0.1)))*(4/(3^(0.5)))*SIN((3^(0.5))*((ROW()-1)*0.1)))</f>
+        <f>(-1*(2.71828^(-0.5*((ROW()-1)*0.1)))*2.066*SIN(1.936*((ROW()-1)*0.1)))</f>
         <v>0</v>
       </c>
     </row>
@@ -9625,16 +9625,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B65" si="1">(-1*(2.71828^(-0.5*((ROW()-1)*1)))*(4/(3^(0.5)))*SIN((3^(0.5))*((ROW()-1)*1)))</f>
-        <v>-1.3825509525925577</v>
+        <f t="shared" ref="B2:B65" si="1">(-1*(2.71828^(-0.5*((ROW()-1)*1)))*2.066*SIN(1.936*((ROW()-1)*1)))</f>
+        <v>-1.1704526007992369</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D65" si="2">((ROW()-1)*0.1)</f>
         <v>0.1</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E65" si="3">(-1*(2.71828^(-0.5*((ROW()-1)*0.1)))*(4/(3^(0.5)))*SIN((3^(0.5))*((ROW()-1)*0.1)))</f>
-        <v>-0.37859217533511058</v>
+        <f t="shared" ref="E2:E65" si="3">(-1*(2.71828^(-0.5*((ROW()-1)*0.1)))*2.066*SIN(1.936*((ROW()-1)*0.1)))</f>
+        <v>-0.37809819208706591</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -9644,7 +9644,7 @@
       </c>
       <c r="B3">
         <f t="shared" si="1"/>
-        <v>0.26927252526325263</v>
+        <v>0.50707788518534191</v>
       </c>
       <c r="D3">
         <f t="shared" si="2"/>
@@ -9652,7 +9652,7 @@
       </c>
       <c r="E3">
         <f t="shared" si="3"/>
-        <v>-0.709479200084845</v>
+        <v>-0.70587799532559514</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9662,7 +9662,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="1"/>
-        <v>0.45616755271331116</v>
+        <v>0.21090321426752973</v>
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
@@ -9670,7 +9670,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="3"/>
-        <v>-0.98699487812630149</v>
+        <v>-0.97569831315920719</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
-        <v>-0.18790536251826789</v>
+        <v>-0.27791374143041225</v>
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
@@ -9688,7 +9688,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="3"/>
-        <v>-1.2076584182001975</v>
+        <v>-1.1828430383858175</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -9698,7 +9698,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
-        <v>-0.13121739082041364</v>
+        <v>4.2814203669425753E-2</v>
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
@@ -9706,7 +9706,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="3"/>
-        <v>-1.3700738274220556</v>
+        <v>-1.3254215401809413</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -9716,7 +9716,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="1"/>
-        <v>9.4683120331876924E-2</v>
+        <v>8.3690324262233079E-2</v>
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
@@ -9724,7 +9724,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
-        <v>-1.4747745748668679</v>
+        <v>-1.4041714780043166</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -9734,7 +9734,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="1"/>
-        <v>2.9831255700565381E-2</v>
+        <v>-5.2007828504968864E-2</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
@@ -9742,7 +9742,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>-1.5240235246891869</v>
+        <v>-1.4221807145734038</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -9752,7 +9752,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="1"/>
-        <v>-4.0642081104664926E-2</v>
+        <v>-8.2564986962362624E-3</v>
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
@@ -9760,7 +9760,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
-        <v>-1.5215785663410104</v>
+        <v>-1.3845465717948684</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -9770,7 +9770,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="1"/>
-        <v>-3.0586584560182341E-3</v>
+        <v>2.2709605767671372E-2</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
@@ -9778,7 +9778,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>-1.4724344351815633</v>
+        <v>-1.2979913133867609</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -9788,7 +9788,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="1"/>
-        <v>1.5547115731732413E-2</v>
+        <v>-6.8011368195971577E-3</v>
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
@@ -9796,7 +9796,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>-1.3825509525925577</v>
+        <v>-1.1704526007992369</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -9806,7 +9806,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
-        <v>-1.9028155511707154E-3</v>
+        <v>-5.4079304767172248E-3</v>
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
@@ -9814,7 +9814,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
-        <v>-1.2585773601634749</v>
+        <v>-1.0106668340881835</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -9824,7 +9824,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
-        <v>-5.348866238772918E-3</v>
+        <v>4.8448903137721568E-3</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
-        <v>-1.1075816223306689</v>
+        <v>-0.82776185468295504</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
-        <v>1.7417790828446475E-3</v>
+        <v>-1.0949524739183616E-4</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
@@ -9850,7 +9850,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="3"/>
-        <v>-0.93679257409747252</v>
+        <v>-0.63087356399594041</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -9860,7 +9860,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
-        <v>1.628501657236401E-3</v>
+        <v>-1.7348998609872514E-3</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
@@ -9868,7 +9868,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="3"/>
-        <v>-0.75336164470680678</v>
+        <v>-0.42879871993448737</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -9878,7 +9878,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
-        <v>-9.579402589463404E-4</v>
+        <v>7.9189575368293641E-4</v>
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
@@ -9886,7 +9886,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="3"/>
-        <v>-0.56414964380694144</v>
+        <v>-0.229693634608823</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -9896,7 +9896,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
-        <v>-4.1251945569283852E-4</v>
+        <v>2.9515959320223031E-4</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
@@ -9904,7 +9904,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="3"/>
-        <v>-0.37554280150595604</v>
+        <v>-4.0825830647506445E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -9914,7 +9914,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="1"/>
-        <v>4.32751112684478E-4</v>
+        <v>-4.191950359727889E-4</v>
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
@@ -9922,7 +9922,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="3"/>
-        <v>-0.19330095253455437</v>
+        <v>0.1316169662774328</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -9932,7 +9932,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="1"/>
-        <v>6.7472761899588525E-5</v>
+        <v>7.3025614960819395E-5</v>
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
@@ -9940,7 +9940,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="3"/>
-        <v>-2.2439488237642833E-2</v>
+        <v>0.28265871190572722</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -9950,7 +9950,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="1"/>
-        <v>-1.7234167652083348E-4</v>
+        <v>1.2257628337425947E-4</v>
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
@@ -9958,7 +9958,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="3"/>
-        <v>0.13285449594317084</v>
+        <v>0.40860843001680813</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -9968,7 +9968,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="1"/>
-        <v>8.7442666156790273E-6</v>
+        <v>-7.9968647016207407E-5</v>
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
@@ -9976,7 +9976,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="3"/>
-        <v>0.26927252526325263</v>
+        <v>0.50707788518534191</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -9986,7 +9986,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="1"/>
-        <v>6.1697925278161831E-5</v>
+        <v>-1.0448323204640759E-5</v>
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
@@ -9994,7 +9994,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="3"/>
-        <v>0.38440318110058708</v>
+        <v>0.57694817338005699</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="1"/>
-        <v>-1.5233434004935128E-5</v>
+        <v>3.3945392172461139E-5</v>
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
@@ -10012,7 +10012,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="3"/>
-        <v>0.4767211130604877</v>
+        <v>0.61829135840848459</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -10022,7 +10022,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="1"/>
-        <v>-1.9730473887673212E-5</v>
+        <v>-1.0862514812211763E-5</v>
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
@@ -10030,7 +10030,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="3"/>
-        <v>0.54554976666937616</v>
+        <v>0.6322544037308504</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -10040,7 +10040,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
-        <v>9.4468765479377467E-6</v>
+        <v>-7.7818279071144624E-6</v>
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
@@ -10048,7 +10048,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
-        <v>0.59100147758211741</v>
+        <v>0.62091338905581883</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -10058,7 +10058,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
-        <v>5.4185197546822285E-6</v>
+        <v>7.3674378549891899E-6</v>
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
@@ -10066,7 +10066,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="3"/>
-        <v>0.61389893390751094</v>
+        <v>0.58710636764929613</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -10076,7 +10076,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
-        <v>-4.5306519597865705E-6</v>
+        <v>-3.2903570080871906E-7</v>
       </c>
       <c r="D27">
         <f t="shared" si="2"/>
@@ -10084,7 +10084,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
-        <v>0.61568220213886182</v>
+        <v>0.53425323506741529</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -10094,7 +10094,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
-        <v>-1.1109509673296076E-6</v>
+        <v>-2.5677818469995508E-6</v>
       </c>
       <c r="D28">
         <f t="shared" si="2"/>
@@ -10102,7 +10102,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="3"/>
-        <v>0.59830555820217257</v>
+        <v>0.46617067597805734</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -10112,7 +10112,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
-        <v>1.8831091885399906E-6</v>
+        <v>1.2334916149351483E-6</v>
       </c>
       <c r="D29">
         <f t="shared" si="2"/>
@@ -10120,7 +10120,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="3"/>
-        <v>0.56412827595425696</v>
+        <v>0.38688967473169622</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -10130,7 +10130,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
-        <v>4.1932549842384511E-8</v>
+        <v>4.1024636337135465E-7</v>
       </c>
       <c r="D30">
         <f t="shared" si="2"/>
@@ -10138,7 +10138,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="3"/>
-        <v>0.51580331669415447</v>
+        <v>0.30048226576975806</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -10148,7 +10148,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
-        <v>-7.0092461466590497E-7</v>
+        <v>-6.3150849131742824E-7</v>
       </c>
       <c r="D31">
         <f t="shared" si="2"/>
@@ -10156,7 +10156,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="3"/>
-        <v>0.45616755271331116</v>
+        <v>0.21090321426752973</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -10166,7 +10166,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="1"/>
-        <v>1.2108944360995033E-7</v>
+        <v>1.2266857870586872E-7</v>
       </c>
       <c r="D32">
         <f t="shared" si="2"/>
@@ -10174,7 +10174,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="3"/>
-        <v>0.38813676486596688</v>
+        <v>0.12185120973656728</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -10184,7 +10184,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
-        <v>2.3427194447438255E-7</v>
+        <v>1.7917515530846697E-7</v>
       </c>
       <c r="D33">
         <f t="shared" si="2"/>
@@ -10192,7 +10192,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="3"/>
-        <v>0.31460819856565686</v>
+        <v>3.6652979269857736E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -10202,7 +10202,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>-9.0174320209689366E-8</v>
+        <v>-1.2275174515050408E-7</v>
       </c>
       <c r="D34">
         <f t="shared" si="2"/>
@@ -10210,7 +10210,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="3"/>
-        <v>0.23837296450919424</v>
+        <v>-4.1827466196217425E-2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -10220,7 +10220,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>-6.8621089230208065E-8</v>
+        <v>-1.2734878111035918E-8</v>
       </c>
       <c r="D35">
         <f t="shared" si="2"/>
@@ -10228,7 +10228,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="3"/>
-        <v>0.16204004920677648</v>
+        <v>-0.11125340291182742</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -10238,7 +10238,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>4.6538286737894739E-8</v>
+        <v>5.0675034458963922E-8</v>
       </c>
       <c r="D36">
         <f t="shared" si="2"/>
@@ -10246,7 +10246,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="3"/>
-        <v>8.7973174332581325E-2</v>
+        <v>-0.16985382569271154</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
-        <v>1.61802758936168E-8</v>
+        <v>-1.7269159295563483E-8</v>
       </c>
       <c r="D37">
         <f t="shared" si="2"/>
@@ -10264,7 +10264,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="3"/>
-        <v>1.8241229691175625E-2</v>
+        <v>-0.21643676983242399</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -10274,7 +10274,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
-        <v>-2.0271841739822819E-8</v>
+        <v>-1.1160758106892491E-8</v>
       </c>
       <c r="D38">
         <f t="shared" si="2"/>
@@ -10282,7 +10282,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="3"/>
-        <v>-4.5417483045321561E-2</v>
+        <v>-0.25037940785653773</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -10292,7 +10292,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
-        <v>-2.0041497627394383E-9</v>
+        <v>1.1188173971896274E-8</v>
       </c>
       <c r="D39">
         <f t="shared" si="2"/>
@@ -10300,7 +10300,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="3"/>
-        <v>-0.10161740722452517</v>
+        <v>-0.27159750681784095</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -10310,7 +10310,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
-        <v>7.8479370397019695E-9</v>
+        <v>-7.4126224875400644E-10</v>
       </c>
       <c r="D40">
         <f t="shared" si="2"/>
@@ -10318,7 +10318,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="3"/>
-        <v>-0.14933489946539102</v>
+        <v>-0.28049736842519973</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -10328,7 +10328,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
-        <v>-7.9121740431456082E-10</v>
+        <v>-3.7947631999810932E-9</v>
       </c>
       <c r="D41">
         <f t="shared" si="2"/>
@@ -10336,7 +10336,7 @@
       </c>
       <c r="E41">
         <f t="shared" si="3"/>
-        <v>-0.18790536251826789</v>
+        <v>-0.27791374143041225</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -10346,7 +10346,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
-        <v>-2.7329951830813677E-9</v>
+        <v>1.9167093561693668E-9</v>
       </c>
       <c r="D42">
         <f t="shared" si="2"/>
@@ -10354,7 +10354,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="3"/>
-        <v>-0.2170095764861795</v>
+        <v>-0.26503739557169376</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -10364,7 +10364,7 @@
       </c>
       <c r="B43">
         <f t="shared" si="1"/>
-        <v>8.2336459738707547E-10</v>
+        <v>5.6563588049112512E-10</v>
       </c>
       <c r="D43">
         <f t="shared" si="2"/>
@@ -10372,7 +10372,7 @@
       </c>
       <c r="E43">
         <f t="shared" si="3"/>
-        <v>-0.23665067792075872</v>
+        <v>-0.24333608732675288</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -10382,7 +10382,7 @@
       </c>
       <c r="B44">
         <f t="shared" si="1"/>
-        <v>8.4505081772188899E-10</v>
+        <v>-9.5017018083716697E-10</v>
       </c>
       <c r="D44">
         <f t="shared" si="2"/>
@@ -10390,7 +10390,7 @@
       </c>
       <c r="E44">
         <f t="shared" si="3"/>
-        <v>-0.24712338682554758</v>
+        <v>-0.2144725433329624</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -10400,7 +10400,7 @@
       </c>
       <c r="B45">
         <f t="shared" si="1"/>
-        <v>-4.6748542749179649E-10</v>
+        <v>2.0355847171664648E-10</v>
       </c>
       <c r="D45">
         <f t="shared" si="2"/>
@@ -10408,7 +10408,7 @@
       </c>
       <c r="E45">
         <f t="shared" si="3"/>
-        <v>-0.24897716844314505</v>
+        <v>-0.18022285537746768</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -10418,7 +10418,7 @@
       </c>
       <c r="B46">
         <f t="shared" si="1"/>
-        <v>-2.1982723613745791E-10</v>
+        <v>2.613602031388842E-10</v>
       </c>
       <c r="D46">
         <f t="shared" si="2"/>
@@ -10426,7 +10426,7 @@
       </c>
       <c r="E46">
         <f t="shared" si="3"/>
-        <v>-0.24297504325188668</v>
+        <v>-0.14239834228084461</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -10436,7 +10436,7 @@
       </c>
       <c r="B47">
         <f t="shared" si="1"/>
-        <v>2.1479304339753721E-10</v>
+        <v>-1.8811471200733287E-10</v>
       </c>
       <c r="D47">
         <f t="shared" si="2"/>
@@ -10444,7 +10444,7 @@
       </c>
       <c r="E47">
         <f t="shared" si="3"/>
-        <v>-0.23004972977122898</v>
+        <v>-0.10277351177984824</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -10454,7 +10454,7 @@
       </c>
       <c r="B48">
         <f t="shared" si="1"/>
-        <v>3.9035809796403858E-11</v>
+        <v>-1.4651738730052546E-11</v>
       </c>
       <c r="D48">
         <f t="shared" si="2"/>
@@ -10462,7 +10462,7 @@
       </c>
       <c r="E48">
         <f t="shared" si="3"/>
-        <v>-0.21125872673163726</v>
+        <v>-6.3022273627799399E-2</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -10472,7 +10472,7 @@
       </c>
       <c r="B49">
         <f t="shared" si="1"/>
-        <v>-8.6620807108147921E-11</v>
+        <v>7.5551188309849102E-11</v>
       </c>
       <c r="D49">
         <f t="shared" si="2"/>
@@ -10480,7 +10480,7 @@
       </c>
       <c r="E49">
         <f t="shared" si="3"/>
-        <v>-0.18773982099530015</v>
+        <v>-2.4664037526792679E-2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -10490,7 +10490,7 @@
       </c>
       <c r="B50">
         <f t="shared" si="1"/>
-        <v>2.510219252891851E-12</v>
+        <v>-2.7341138830044202E-11</v>
       </c>
       <c r="D50">
         <f t="shared" si="2"/>
@@ -10498,7 +10498,7 @@
       </c>
       <c r="E50">
         <f t="shared" si="3"/>
-        <v>-0.16066835303379834</v>
+        <v>1.0979200789086053E-2</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -10508,7 +10508,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="1"/>
-        <v>3.1377132714748968E-11</v>
+        <v>-1.5948682869500548E-11</v>
       </c>
       <c r="D51">
         <f t="shared" si="2"/>
@@ -10516,7 +10516,7 @@
       </c>
       <c r="E51">
         <f t="shared" si="3"/>
-        <v>-0.13121739082041364</v>
+        <v>4.2814203669425753E-2</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -10526,7 +10526,7 @@
       </c>
       <c r="B52">
         <f t="shared" si="1"/>
-        <v>-7.0346256802619013E-12</v>
+        <v>1.6967734376796257E-11</v>
       </c>
       <c r="D52">
         <f t="shared" si="2"/>
@@ -10534,7 +10534,7 @@
       </c>
       <c r="E52">
         <f t="shared" si="3"/>
-        <v>-0.100521763768598</v>
+        <v>6.9996178293969591E-2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -10544,7 +10544,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="1"/>
-        <v>-1.017291099854558E-11</v>
+        <v>-1.4837742888211253E-12</v>
       </c>
       <c r="D53">
         <f t="shared" si="2"/>
@@ -10552,7 +10552,7 @@
       </c>
       <c r="E53">
         <f t="shared" si="3"/>
-        <v>-6.9646698728504208E-2</v>
+        <v>9.1937168866457378E-2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -10562,7 +10562,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="1"/>
-        <v>4.5692228344169761E-12</v>
+        <v>-5.5992658750549735E-12</v>
       </c>
       <c r="D54">
         <f t="shared" si="2"/>
@@ -10570,7 +10570,7 @@
       </c>
       <c r="E54">
         <f t="shared" si="3"/>
-        <v>-3.9561587495056463E-2</v>
+        <v>0.10830391083909674</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -10580,7 +10580,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="1"/>
-        <v>2.8524826816412521E-12</v>
+        <v>2.9716333184374413E-12</v>
       </c>
       <c r="D55">
         <f t="shared" si="2"/>
@@ -10588,7 +10588,7 @@
       </c>
       <c r="E55">
         <f t="shared" si="3"/>
-        <v>-1.1119206619662746E-2</v>
+        <v>0.11900623135592441</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -10598,7 +10598,7 @@
       </c>
       <c r="B56">
         <f t="shared" si="1"/>
-        <v>-2.236488040347589E-12</v>
+        <v>7.7244861659792375E-13</v>
       </c>
       <c r="D56">
         <f t="shared" si="2"/>
@@ -10606,7 +10606,7 @@
       </c>
       <c r="E56">
         <f t="shared" si="3"/>
-        <v>1.4959488381563078E-2</v>
+        <v>0.12417733541983328</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="B57">
         <f t="shared" si="1"/>
-        <v>-6.1378086538074103E-13</v>
+        <v>-1.4278532392133385E-12</v>
       </c>
       <c r="D57">
         <f t="shared" si="2"/>
@@ -10624,7 +10624,7 @@
       </c>
       <c r="E57">
         <f t="shared" si="3"/>
-        <v>3.8095055886522879E-2</v>
+        <v>0.124147497513482</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -10634,7 +10634,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="1"/>
-        <v>9.4230154925452571E-13</v>
+        <v>3.3442400206977946E-13</v>
       </c>
       <c r="D58">
         <f t="shared" si="2"/>
@@ -10642,7 +10642,7 @@
       </c>
       <c r="E58">
         <f t="shared" si="3"/>
-        <v>5.7853973749149003E-2</v>
+        <v>0.11941278385038236</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -10652,7 +10652,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="1"/>
-        <v>4.2270159910502773E-14</v>
+        <v>3.8039492176859392E-13</v>
       </c>
       <c r="D59">
         <f t="shared" si="2"/>
@@ -10660,7 +10660,7 @@
       </c>
       <c r="E59">
         <f t="shared" si="3"/>
-        <v>7.3948124868734408E-2</v>
+        <v>0.11060046421676939</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -10670,7 +10670,7 @@
       </c>
       <c r="B60">
         <f t="shared" si="1"/>
-        <v>-3.5488634789023847E-13</v>
+        <v>-2.8782716880933812E-13</v>
       </c>
       <c r="D60">
         <f t="shared" si="2"/>
@@ -10678,7 +10678,7 @@
       </c>
       <c r="E60">
         <f t="shared" si="3"/>
-        <v>8.622984681457567E-2</v>
+        <v>9.8432740025827498E-2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -10688,7 +10688,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="1"/>
-        <v>5.3569103452450323E-14</v>
+        <v>-1.5243535857345935E-14</v>
       </c>
       <c r="D61">
         <f t="shared" si="2"/>
@@ -10696,7 +10696,7 @@
       </c>
       <c r="E61">
         <f t="shared" si="3"/>
-        <v>9.4683120331876924E-2</v>
+        <v>8.3690324262233079E-2</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -10706,7 +10706,7 @@
       </c>
       <c r="B62">
         <f t="shared" si="1"/>
-        <v>1.2012209315271329E-13</v>
+        <v>1.124897615074809E-13</v>
       </c>
       <c r="D62">
         <f t="shared" si="2"/>
@@ -10714,7 +10714,7 @@
       </c>
       <c r="E62">
         <f t="shared" si="3"/>
-        <v>9.9411535946001411E-2</v>
+        <v>6.7177268472360871E-2</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -10724,7 +10724,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="1"/>
-        <v>-4.3102563613653989E-14</v>
+        <v>-4.3126412119370568E-14</v>
       </c>
       <c r="D63">
         <f t="shared" si="2"/>
@@ -10732,7 +10732,7 @@
       </c>
       <c r="E63">
         <f t="shared" si="3"/>
-        <v>0.10062371642956777</v>
+        <v>4.9688251900602297E-2</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -10742,7 +10742,7 @@
       </c>
       <c r="B64">
         <f t="shared" si="1"/>
-        <v>-3.5795607767498279E-14</v>
+        <v>-2.2698943248517266E-14</v>
       </c>
       <c r="D64">
         <f t="shared" si="2"/>
@@ -10750,7 +10750,7 @@
       </c>
       <c r="E64">
         <f t="shared" si="3"/>
-        <v>9.8616886870924056E-2</v>
+        <v>3.1979338874806855E-2</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -10760,7 +10760,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="1"/>
-        <v>2.2828288942759074E-14</v>
+        <v>2.5699246703358017E-14</v>
       </c>
       <c r="D65">
         <f t="shared" si="2"/>
@@ -10768,25 +10768,25 @@
       </c>
       <c r="E65">
         <f t="shared" si="3"/>
-        <v>9.3759275390667099E-2</v>
+        <v>1.4742983283382582E-2</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" ref="A66:A129" si="4">((ROW()-1)*1)</f>
+        <f t="shared" ref="A66:A101" si="4">((ROW()-1)*1)</f>
         <v>65</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:B129" si="5">(-1*(2.71828^(-0.5*((ROW()-1)*1)))*(4/(3^(0.5)))*SIN((3^(0.5))*((ROW()-1)*1)))</f>
-        <v>8.7223255257049954E-15</v>
+        <f t="shared" ref="B66:B129" si="5">(-1*(2.71828^(-0.5*((ROW()-1)*1)))*2.066*SIN(1.936*((ROW()-1)*1)))</f>
+        <v>-2.7832638663887449E-15</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D129" si="6">((ROW()-1)*0.1)</f>
+        <f t="shared" ref="D66:D101" si="6">((ROW()-1)*0.1)</f>
         <v>6.5</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E129" si="7">(-1*(2.71828^(-0.5*((ROW()-1)*0.1)))*(4/(3^(0.5)))*SIN((3^(0.5))*((ROW()-1)*0.1)))</f>
-        <v>8.6471998620133064E-2</v>
+        <f t="shared" ref="E66:E129" si="7">(-1*(2.71828^(-0.5*((ROW()-1)*0.1)))*2.066*SIN(1.936*((ROW()-1)*0.1)))</f>
+        <v>-1.4121761811968201E-3</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -10796,7 +10796,7 @@
       </c>
       <c r="B67">
         <f t="shared" si="5"/>
-        <v>-1.0096867489641098E-14</v>
+        <v>-8.2484310381522381E-15</v>
       </c>
       <c r="D67">
         <f t="shared" si="6"/>
@@ -10804,7 +10804,7 @@
       </c>
       <c r="E67">
         <f t="shared" si="7"/>
-        <v>7.7211039700745845E-2</v>
+        <v>-1.5976419742661809E-2</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -10814,7 +10814,7 @@
       </c>
       <c r="B68">
         <f t="shared" si="5"/>
-        <v>-1.2422500823449723E-15</v>
+        <v>4.5973930854926805E-15</v>
       </c>
       <c r="D68">
         <f t="shared" si="6"/>
@@ -10822,7 +10822,7 @@
       </c>
       <c r="E68">
         <f t="shared" si="7"/>
-        <v>6.6449865873515868E-2</v>
+        <v>-2.854886191427105E-2</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -10832,7 +10832,7 @@
       </c>
       <c r="B69">
         <f t="shared" si="5"/>
-        <v>3.9563792955811632E-15</v>
+        <v>1.0426910108715607E-15</v>
       </c>
       <c r="D69">
         <f t="shared" si="6"/>
@@ -10840,7 +10840,7 @@
       </c>
       <c r="E69">
         <f t="shared" si="7"/>
-        <v>5.4663160939851678E-2</v>
+        <v>-3.8842296267046224E-2</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -10850,7 +10850,7 @@
       </c>
       <c r="B70">
         <f t="shared" si="5"/>
-        <v>-3.1356560848344916E-16</v>
+        <v>-2.143014973106481E-15</v>
       </c>
       <c r="D70">
         <f t="shared" si="6"/>
@@ -10858,7 +10858,7 @@
       </c>
       <c r="E70">
         <f t="shared" si="7"/>
-        <v>4.2312068258607602E-2</v>
+        <v>-4.6683268409222906E-2</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -10868,7 +10868,7 @@
       </c>
       <c r="B71">
         <f t="shared" si="5"/>
-        <v>-1.3943999801099743E-15</v>
+        <v>5.448384849392986E-16</v>
       </c>
       <c r="D71">
         <f t="shared" si="6"/>
@@ -10876,7 +10876,7 @@
       </c>
       <c r="E71">
         <f t="shared" si="7"/>
-        <v>2.9831255700565381E-2</v>
+        <v>-5.2007828504968864E-2</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -10886,7 +10886,7 @@
       </c>
       <c r="B72">
         <f t="shared" si="5"/>
-        <v>3.8693471942616887E-16</v>
+        <v>5.5233004506493058E-16</v>
       </c>
       <c r="D72">
         <f t="shared" si="6"/>
@@ -10894,7 +10894,7 @@
       </c>
       <c r="E72">
         <f t="shared" si="7"/>
-        <v>1.7618028149143046E-2</v>
+        <v>-5.4853535544230274E-2</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -10904,7 +10904,7 @@
       </c>
       <c r="B73">
         <f t="shared" si="5"/>
-        <v>4.3761009295853419E-16</v>
+        <v>-4.3972223406135153E-16</v>
       </c>
       <c r="D73">
         <f t="shared" si="6"/>
@@ -10912,7 +10912,7 @@
       </c>
       <c r="E73">
         <f t="shared" si="7"/>
-        <v>6.0236285136451703E-3</v>
+        <v>-5.5348373257321205E-2</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="B74">
         <f t="shared" si="5"/>
-        <v>-2.275765503688031E-16</v>
+        <v>-1.2689125327694378E-17</v>
       </c>
       <c r="D74">
         <f t="shared" si="6"/>
@@ -10930,7 +10930,7 @@
       </c>
       <c r="E74">
         <f t="shared" si="7"/>
-        <v>-4.6532126962175171E-3</v>
+        <v>-5.3697291882204644E-2</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -10940,7 +10940,7 @@
       </c>
       <c r="B75">
         <f t="shared" si="5"/>
-        <v>-1.166639197185815E-16</v>
+        <v>1.67262217639255E-16</v>
       </c>
       <c r="D75">
         <f t="shared" si="6"/>
@@ -10948,7 +10948,7 @@
       </c>
       <c r="E75">
         <f t="shared" si="7"/>
-        <v>-1.4170494255218607E-2</v>
+        <v>-5.0167112055057028E-2</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -10958,7 +10958,7 @@
       </c>
       <c r="B76">
         <f t="shared" si="5"/>
-        <v>1.0644283788261814E-16</v>
+        <v>-6.7795325619932583E-17</v>
       </c>
       <c r="D76">
         <f t="shared" si="6"/>
@@ -10966,7 +10966,7 @@
       </c>
       <c r="E76">
         <f t="shared" si="7"/>
-        <v>-2.2345010049922388E-2</v>
+        <v>-4.507051913818369E-2</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -10976,7 +10976,7 @@
       </c>
       <c r="B77">
         <f t="shared" si="5"/>
-        <v>2.2186947988136815E-17</v>
+        <v>-3.2161246949352586E-17</v>
       </c>
       <c r="D77">
         <f t="shared" si="6"/>
@@ -10984,7 +10984,7 @@
       </c>
       <c r="E77">
         <f t="shared" si="7"/>
-        <v>-2.9052404829719495E-2</v>
+        <v>-3.8749841482072875E-2</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -10994,7 +10994,7 @@
       </c>
       <c r="B78">
         <f t="shared" si="5"/>
-        <v>-4.3479398804879719E-17</v>
+        <v>3.8873814620602279E-17</v>
       </c>
       <c r="D78">
         <f t="shared" si="6"/>
@@ -11002,7 +11002,7 @@
       </c>
       <c r="E78">
         <f t="shared" si="7"/>
-        <v>-3.4225409445923914E-2</v>
+        <v>-3.1561248316765482E-2</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -11012,7 +11012,7 @@
       </c>
       <c r="B79">
         <f t="shared" si="5"/>
-        <v>3.0613724426639164E-19</v>
+        <v>-5.009923032731349E-18</v>
       </c>
       <c r="D79">
         <f t="shared" si="6"/>
@@ -11020,7 +11020,7 @@
       </c>
       <c r="E79">
         <f t="shared" si="7"/>
-        <v>-3.7850483256037674E-2</v>
+        <v>-2.3859926560873046E-2</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -11030,7 +11030,7 @@
       </c>
       <c r="B80">
         <f t="shared" si="5"/>
-        <v>1.5935562876072615E-17</v>
+        <v>-1.2130426284846576E-17</v>
       </c>
       <c r="D80">
         <f t="shared" si="6"/>
@@ -11038,7 +11038,7 @@
       </c>
       <c r="E80">
         <f t="shared" si="7"/>
-        <v>-3.9963118833643924E-2</v>
+        <v>-1.5986705492404434E-2</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -11048,7 +11048,7 @@
       </c>
       <c r="B81">
         <f t="shared" si="5"/>
-        <v>-3.2163114506551116E-18</v>
+        <v>7.0983415383843639E-18</v>
       </c>
       <c r="D81">
         <f t="shared" si="6"/>
@@ -11056,7 +11056,7 @@
       </c>
       <c r="E81">
         <f t="shared" si="7"/>
-        <v>-4.0642081104664926E-2</v>
+        <v>-8.2564986962362624E-3</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -11066,7 +11066,7 @@
       </c>
       <c r="B82">
         <f t="shared" si="5"/>
-        <v>-5.2359450348857045E-18</v>
+        <v>1.3873065354836829E-18</v>
       </c>
       <c r="D82">
         <f t="shared" si="6"/>
@@ -11074,7 +11074,7 @@
       </c>
       <c r="E82">
         <f t="shared" si="7"/>
-        <v>-4.0002860001768663E-2</v>
+        <v>-9.48828636874668E-4</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -11084,7 +11084,7 @@
       </c>
       <c r="B83">
         <f t="shared" si="5"/>
-        <v>2.2029944479842119E-18</v>
+        <v>-3.2123616913691171E-18</v>
       </c>
       <c r="D83">
         <f t="shared" si="6"/>
@@ -11092,7 +11092,7 @@
       </c>
       <c r="E83">
         <f t="shared" si="7"/>
-        <v>-3.8190613428017779E-2</v>
+        <v>5.6994050199529614E-3</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -11102,7 +11102,7 @@
       </c>
       <c r="B84">
         <f t="shared" si="5"/>
-        <v>1.4971316329953663E-18</v>
+        <v>8.8133698308522783E-19</v>
       </c>
       <c r="D84">
         <f t="shared" si="6"/>
@@ -11110,7 +11110,7 @@
       </c>
       <c r="E84">
         <f t="shared" si="7"/>
-        <v>-3.537286670170893E-2</v>
+        <v>1.1498852629972337E-2</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -11120,7 +11120,7 @@
       </c>
       <c r="B85">
         <f t="shared" si="5"/>
-        <v>-1.102025742139372E-18</v>
+        <v>7.9993896080628525E-19</v>
       </c>
       <c r="D85">
         <f t="shared" si="6"/>
@@ -11128,7 +11128,7 @@
       </c>
       <c r="E85">
         <f t="shared" si="7"/>
-        <v>-3.1732216835893355E-2</v>
+        <v>1.6310369793166933E-2</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -11138,7 +11138,7 @@
       </c>
       <c r="B86">
         <f t="shared" si="5"/>
-        <v>-3.361282840943872E-19</v>
+        <v>-6.7078537957875433E-19</v>
       </c>
       <c r="D86">
         <f t="shared" si="6"/>
@@ -11146,7 +11146,7 @@
       </c>
       <c r="E86">
         <f t="shared" si="7"/>
-        <v>-2.7459266223005641E-2</v>
+        <v>2.0045516098997275E-2</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -11156,7 +11156,7 @@
       </c>
       <c r="B87">
         <f t="shared" si="5"/>
-        <v>4.7087890944958187E-19</v>
+        <v>-3.6753956274182193E-21</v>
       </c>
       <c r="D87">
         <f t="shared" si="6"/>
@@ -11164,7 +11164,7 @@
       </c>
       <c r="E87">
         <f t="shared" si="7"/>
-        <v>-2.2745981848525856E-2</v>
+        <v>2.2665083697292785E-2</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -11174,7 +11174,7 @@
       </c>
       <c r="B88">
         <f t="shared" si="5"/>
-        <v>3.1944041445032568E-20</v>
+        <v>2.4836061671631076E-19</v>
       </c>
       <c r="D88">
         <f t="shared" si="6"/>
@@ -11182,7 +11182,7 @@
       </c>
       <c r="E88">
         <f t="shared" si="7"/>
-        <v>-1.7779644368859284E-2</v>
+        <v>2.41758989786615E-2</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -11192,7 +11192,7 @@
       </c>
       <c r="B89">
         <f t="shared" si="5"/>
-        <v>-1.7944836756662015E-19</v>
+        <v>-1.0624574054773203E-19</v>
       </c>
       <c r="D89">
         <f t="shared" si="6"/>
@@ -11200,7 +11200,7 @@
       </c>
       <c r="E89">
         <f t="shared" si="7"/>
-        <v>-1.2737517556192708E-2</v>
+        <v>2.4626182981033872E-2</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -11210,7 +11210,7 @@
       </c>
       <c r="B90">
         <f t="shared" si="5"/>
-        <v>2.3198695858696683E-20</v>
+        <v>-4.5337738631032339E-20</v>
       </c>
       <c r="D90">
         <f t="shared" si="6"/>
@@ -11218,7 +11218,7 @@
       </c>
       <c r="E90">
         <f t="shared" si="7"/>
-        <v>-7.7823339749824834E-3</v>
+        <v>2.409978361255237E-2</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="B91">
         <f t="shared" si="5"/>
-        <v>6.1497115770931383E-20</v>
+        <v>5.8727423234215341E-20</v>
       </c>
       <c r="D91">
         <f t="shared" si="6"/>
@@ -11236,7 +11236,7 @@
       </c>
       <c r="E91">
         <f t="shared" si="7"/>
-        <v>-3.0586584560182341E-3</v>
+        <v>2.2709605767671372E-2</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -11246,7 +11246,7 @@
       </c>
       <c r="B92">
         <f t="shared" si="5"/>
-        <v>-2.0511814272057112E-20</v>
+        <v>-8.7637841174747307E-21</v>
       </c>
       <c r="D92">
         <f t="shared" si="6"/>
@@ -11254,7 +11254,7 @@
       </c>
       <c r="E92">
         <f t="shared" si="7"/>
-        <v>1.3098419997139368E-3</v>
+        <v>2.0590564799197852E-2</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -11264,7 +11264,7 @@
       </c>
       <c r="B93">
         <f t="shared" si="5"/>
-        <v>-1.8628556458021002E-20</v>
+        <v>-1.7807871726740581E-20</v>
       </c>
       <c r="D93">
         <f t="shared" si="6"/>
@@ -11272,7 +11272,7 @@
       </c>
       <c r="E93">
         <f t="shared" si="7"/>
-        <v>5.2222239379400804E-3</v>
+        <v>1.7892375911652294E-2</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -11282,7 +11282,7 @@
       </c>
       <c r="B94">
         <f t="shared" si="5"/>
-        <v>1.1174070497655256E-20</v>
+        <v>1.0938963594877461E-20</v>
       </c>
       <c r="D94">
         <f t="shared" si="6"/>
@@ -11290,7 +11290,7 @@
       </c>
       <c r="E94">
         <f t="shared" si="7"/>
-        <v>8.6012185390472416E-3</v>
+        <v>1.4772468518740586E-2</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -11300,7 +11300,7 @@
       </c>
       <c r="B95">
         <f t="shared" si="5"/>
-        <v>4.6767497979178755E-21</v>
+        <v>1.8120418275479814E-21</v>
       </c>
       <c r="D95">
         <f t="shared" si="6"/>
@@ -11308,7 +11308,7 @@
       </c>
       <c r="E95">
         <f t="shared" si="7"/>
-        <v>1.1393361973443651E-2</v>
+        <v>1.1389282363003265E-2</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -11318,7 +11318,7 @@
       </c>
       <c r="B96">
         <f t="shared" si="5"/>
-        <v>-5.0215807124888418E-21</v>
+        <v>-4.8092575897976918E-21</v>
       </c>
       <c r="D96">
         <f t="shared" si="6"/>
@@ -11326,7 +11326,7 @@
       </c>
       <c r="E96">
         <f t="shared" si="7"/>
-        <v>1.3568379106607574E-2</v>
+        <v>7.8961632816090029E-3</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -11336,7 +11336,7 @@
       </c>
       <c r="B97">
         <f t="shared" si="5"/>
-        <v>-7.424531319949691E-22</v>
+        <v>1.4169123966288471E-21</v>
       </c>
       <c r="D97">
         <f t="shared" si="6"/>
@@ -11344,7 +11344,7 @@
       </c>
       <c r="E97">
         <f t="shared" si="7"/>
-        <v>1.5117910616062866E-2</v>
+        <v>4.4360330290830986E-3</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -11354,7 +11354,7 @@
       </c>
       <c r="B98">
         <f t="shared" si="5"/>
-        <v>1.9919414272598201E-21</v>
+        <v>1.1553759525535441E-21</v>
       </c>
       <c r="D98">
         <f t="shared" si="6"/>
@@ -11362,7 +11362,7 @@
       </c>
       <c r="E98">
         <f t="shared" si="7"/>
-        <v>1.6053685263888947E-2</v>
+        <v>1.1369616178923533E-3</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -11372,7 +11372,7 @@
       </c>
       <c r="B99">
         <f t="shared" si="5"/>
-        <v>-1.1482702918699912E-22</v>
+        <v>-1.0217994853064467E-21</v>
       </c>
       <c r="D99">
         <f t="shared" si="6"/>
@@ -11380,7 +11380,7 @@
       </c>
       <c r="E99">
         <f t="shared" si="7"/>
-        <v>1.6405246499917068E-2</v>
+        <v>-1.8912758106425704E-3</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -11390,7 +11390,7 @@
       </c>
       <c r="B100">
         <f t="shared" si="5"/>
-        <v>-7.1043050659835613E-22</v>
+        <v>1.7637206747752738E-23</v>
       </c>
       <c r="D100">
         <f t="shared" si="6"/>
@@ -11398,7 +11398,7 @@
       </c>
       <c r="E100">
         <f t="shared" si="7"/>
-        <v>1.6217345927685041E-2</v>
+        <v>-4.5596207108719762E-3</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -11408,7 +11408,7 @@
       </c>
       <c r="B101">
         <f t="shared" si="5"/>
-        <v>1.8060952369898982E-22</v>
+        <v>3.6825826865409176E-22</v>
       </c>
       <c r="D101">
         <f t="shared" si="6"/>
@@ -11416,7 +11416,7 @@
       </c>
       <c r="E101">
         <f t="shared" si="7"/>
-        <v>1.5547115731732413E-2</v>
+        <v>-6.8011368195971577E-3</v>
       </c>
     </row>
   </sheetData>
@@ -11429,7 +11429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:E101"/>
     </sheetView>
   </sheetViews>
@@ -12607,19 +12607,19 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" ref="A66:A129" si="4">((ROW()-1)*1)</f>
+        <f t="shared" ref="A66:A101" si="4">((ROW()-1)*1)</f>
         <v>65</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:B129" si="5">(12+(2.71828^(-1*((ROW()-1)*1)))*(-2*SIN(2*((ROW()-1)*1))-4*COS(2*((ROW()-1)*1))))</f>
+        <f t="shared" ref="B66:B101" si="5">(12+(2.71828^(-1*((ROW()-1)*1)))*(-2*SIN(2*((ROW()-1)*1))-4*COS(2*((ROW()-1)*1))))</f>
         <v>12</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D129" si="6">((ROW()-1)*0.1)</f>
+        <f t="shared" ref="D66:D101" si="6">((ROW()-1)*0.1)</f>
         <v>6.5</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E129" si="7">(12+(2.71828^(-1*((ROW()-1)*0.1)))*(-2*SIN(2*((ROW()-1)*0.1))-4*COS(2*((ROW()-1)*0.1))))</f>
+        <f t="shared" ref="E66:E101" si="7">(12+(2.71828^(-1*((ROW()-1)*0.1)))*(-2*SIN(2*((ROW()-1)*0.1))-4*COS(2*((ROW()-1)*0.1))))</f>
         <v>11.993279415207418</v>
       </c>
     </row>
